--- a/data/Item List E9.xlsx
+++ b/data/Item List E9.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\beaker\Profound Decisions\Event\Odyssey\The Dweller in the Deeps - Event 2 - 2014\Plot\9 - The Dweller in the Deep\Artifacts and Blessings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pax\Dropbox\Carcosa\Odyssey\OdysseyStoryTeam\9 - The Dweller in the Deep\Artifacts and Blessings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Artifacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="519">
   <si>
     <t>Item</t>
   </si>
@@ -1749,98 +1749,6 @@
   </si>
   <si>
     <t>This statue does not depict a kissing couple but is instead a depiction of El sucking the breath from a victim. The person investigating this statue has come to the attention of EL. They may not be subject to any blessings or curses from any god save LAMASHTU and any extant blessings from other gods are immediately cancelled.</t>
-  </si>
-  <si>
-    <t>Bow of the Kings of Ithiki</t>
-  </si>
-  <si>
-    <t>If you are the Warleader who controls the territory of Ithiki, you can wield this bow you gain the USE MISSILE WEAPONS skill. Only a character who is the Warleader of Ithiki can use this bow.
-Once during any Arena Battle or Quest while you wield the Bow of the Kings of Ithiki you may call RESIST against any IMPALE or REPEL that strikes you to treat it as a normal hit.
-When you fight in an Arena Battle in defence of Ithiki you can call RESIST against any IMPALE or REPEL that strikes you to treat it as a normal hit.
-When you enter the Arena in defence of Ithiki, it does not count against the daily allocation of defensive battles for you or your Warband, and you may enter even if you have already participated in a defensive battle today. This
-does stack with other abilities that let you make additional attacks and defences.
-When you use this special item in an Arena Battle, you may attract the attention of Poseidon, and not necessarily in a positive way.</t>
-  </si>
-  <si>
-    <t>Ithiki tribute</t>
-  </si>
-  <si>
-    <t>"I am Odysseus son of Laertes, known before all men for the study of crafty designs, and my fame goes up to
-the heavens."</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>Amulet of King Mausolus</t>
-  </si>
-  <si>
-    <t>Do you remember Pergamon, greatest of the Greek kingdoms of Asia? Do you remember Helicarnassus, ancient capital of that kingdom? Do you remember Mausolus, who ruled there and rebelled against monstrous Alexander? He built a monument to his life and his death, the first Mausoleum, and who can walk the streets where he once walked without looking up to see it against the skyline, and be reminded of his reign?
-When that great King heard the echoing steps of Thanatos approaching, he did not lie down and wait for death to claim him. Hermes came to take Mausolus to the judgement of Hades, the King did not go quiet into the dark land from which no traveller returns. He walked with his finest Hoplites into the great structure of marble and sealed the doors behind him. Some few relics remain of Mausolus, and this amulet is one of them.
-Remember Mausolus, who departed out of this life on his own terms.</t>
-  </si>
-  <si>
-    <t>Amulet</t>
-  </si>
-  <si>
-    <t>You can use this artefact once during an annual by placing it around the neck of a character who is INCAPACITATED. As long as the character wears the amulet of Mausolus they are not INCAPACITATED. If a character wearing the amulet of Mausolus is INCAPACITATED for a second time, the effect of the amulet ends immediately and the next time the character makes a bead pull to prevent death they must draw an additional bead and use the worst result.
-When the amulet is removed the character returns to their INCAPCACITATED state and may die. They require the usualt number of bead pulls to be healed based on the location where they first became INCAPACITATED rather than where they are at the time the bead pull takes place.
-You must inform a referee that you have used this artefact as soon as it is practical to do so.
-In addition, once each day while you are wearing the Amulet of Mausolus you may declare “The Dead May Not Harm Me” to gain a measure of protection from the dead of any nation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This chain can be used by one divine entity to contain, constrain or imprison another. </t>
-  </si>
-  <si>
-    <t>Heavy Broken Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forged by Hephaestus himself. One of the links has broken. The desperation or fury that must have gone into breaking that link are incalculable. </t>
-  </si>
-  <si>
-    <t>Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The being whioch this chain contained was a god. An old, powerful god but a god nonetheless. </t>
-  </si>
-  <si>
-    <t>Dido's Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A stone taken from Tyre to form the foundation of Carthage; transferred to Ba'al s temple in Sijilmasa for safe keeping. </t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>DIDO's FOUNDATION acts as a focus for any PARAMOUNT MYSTERY. It is aligned with the element of EARTH</t>
-  </si>
-  <si>
-    <t>The Spear of Mars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE SPEAR OF MARS may not be used by a mortal as a weapon. If invoked in the opening ceremony of an arena battle it may be used to touch the foreheads of up to ten ROMAN CHAMPIONS. Those champions may use the blessing of the Spear to call RESIST to treat any call of PARALYZE as a normal hit. Once invoked, the SPEAR OF MARS will disappear. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinary. Businesslike. Not fancy. A weapon for use, not show. And on it's tip, stains. This spear has tasted the blood of Ares. </t>
-  </si>
-  <si>
-    <t>Yes - scene of battle between Ares and Mars</t>
-  </si>
-  <si>
-    <t>The Heart of Dionysos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The heart of a god. Wheresoever it is planted, any Hellenic Phoenician citizen may become a citizen of that nation permanently, and the god will be reborn into that magisterium. </t>
-  </si>
-  <si>
-    <t>Such a small thing to contain such tumult.</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes - potted hsitory of Dionysos, fall of Atland etc. </t>
   </si>
 </sst>
 </file>
@@ -2331,13 +2239,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AMK124"/>
+  <dimension ref="A1:AMK119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
-      <selection pane="bottomRight" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45993,14 +45901,14 @@
       </c>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>314</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="14" t="s">
         <v>315</v>
       </c>
       <c r="D74" s="15" t="s">
@@ -46660,52 +46568,13 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="B98" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="B99" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -47022,7 +46891,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="113" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>482</v>
       </c>
@@ -47045,7 +46914,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>491</v>
       </c>
@@ -47068,7 +46937,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>487</v>
       </c>
@@ -47091,7 +46960,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>488</v>
       </c>
@@ -47111,7 +46980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>489</v>
       </c>
@@ -47131,7 +47000,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="118" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>490</v>
       </c>
@@ -47154,7 +47023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>497</v>
       </c>
@@ -47169,1137 +47038,6 @@
       </c>
       <c r="H119" s="21" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H120" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120"/>
-      <c r="X120"/>
-      <c r="Y120"/>
-      <c r="Z120"/>
-      <c r="AA120"/>
-      <c r="AB120"/>
-      <c r="AC120"/>
-      <c r="AD120"/>
-      <c r="AE120"/>
-      <c r="AF120"/>
-      <c r="AG120"/>
-      <c r="AH120"/>
-      <c r="AI120"/>
-      <c r="AJ120"/>
-      <c r="AK120"/>
-      <c r="AL120"/>
-      <c r="AM120"/>
-      <c r="AN120"/>
-      <c r="AO120"/>
-      <c r="AP120"/>
-      <c r="AQ120"/>
-      <c r="AR120"/>
-      <c r="AS120"/>
-      <c r="AT120"/>
-      <c r="AU120"/>
-      <c r="AV120"/>
-      <c r="AW120"/>
-      <c r="AX120"/>
-      <c r="AY120"/>
-      <c r="AZ120"/>
-      <c r="BA120"/>
-      <c r="BB120"/>
-      <c r="BC120"/>
-      <c r="BD120"/>
-      <c r="BE120"/>
-      <c r="BF120"/>
-      <c r="BG120"/>
-      <c r="BH120"/>
-      <c r="BI120"/>
-      <c r="BJ120"/>
-      <c r="BK120"/>
-      <c r="BL120"/>
-      <c r="BM120"/>
-      <c r="BN120"/>
-      <c r="BO120"/>
-      <c r="BP120"/>
-      <c r="BQ120"/>
-      <c r="BR120"/>
-      <c r="BS120"/>
-      <c r="BT120"/>
-      <c r="BU120"/>
-      <c r="BV120"/>
-      <c r="BW120"/>
-      <c r="BX120"/>
-      <c r="BY120"/>
-      <c r="BZ120"/>
-      <c r="CA120"/>
-      <c r="CB120"/>
-      <c r="CC120"/>
-      <c r="CD120"/>
-      <c r="CE120"/>
-      <c r="CF120"/>
-      <c r="CG120"/>
-      <c r="CH120"/>
-      <c r="CI120"/>
-      <c r="CJ120"/>
-      <c r="CK120"/>
-      <c r="CL120"/>
-      <c r="CM120"/>
-      <c r="CN120"/>
-      <c r="CO120"/>
-      <c r="CP120"/>
-      <c r="CQ120"/>
-      <c r="CR120"/>
-      <c r="CS120"/>
-      <c r="CT120"/>
-      <c r="CU120"/>
-      <c r="CV120"/>
-      <c r="CW120"/>
-      <c r="CX120"/>
-      <c r="CY120"/>
-      <c r="CZ120"/>
-      <c r="DA120"/>
-      <c r="DB120"/>
-      <c r="DC120"/>
-      <c r="DD120"/>
-      <c r="DE120"/>
-      <c r="DF120"/>
-      <c r="DG120"/>
-      <c r="DH120"/>
-      <c r="DI120"/>
-      <c r="DJ120"/>
-      <c r="DK120"/>
-      <c r="DL120"/>
-      <c r="DM120"/>
-      <c r="DN120"/>
-      <c r="DO120"/>
-      <c r="DP120"/>
-      <c r="DQ120"/>
-      <c r="DR120"/>
-      <c r="DS120"/>
-      <c r="DT120"/>
-      <c r="DU120"/>
-      <c r="DV120"/>
-      <c r="DW120"/>
-      <c r="DX120"/>
-      <c r="DY120"/>
-      <c r="DZ120"/>
-      <c r="EA120"/>
-      <c r="EB120"/>
-      <c r="EC120"/>
-      <c r="ED120"/>
-      <c r="EE120"/>
-      <c r="EF120"/>
-      <c r="EG120"/>
-      <c r="EH120"/>
-      <c r="EI120"/>
-      <c r="EJ120"/>
-      <c r="EK120"/>
-      <c r="EL120"/>
-      <c r="EM120"/>
-      <c r="EN120"/>
-      <c r="EO120"/>
-      <c r="EP120"/>
-      <c r="EQ120"/>
-      <c r="ER120"/>
-      <c r="ES120"/>
-      <c r="ET120"/>
-      <c r="EU120"/>
-      <c r="EV120"/>
-      <c r="EW120"/>
-      <c r="EX120"/>
-      <c r="EY120"/>
-      <c r="EZ120"/>
-      <c r="FA120"/>
-      <c r="FB120"/>
-      <c r="FC120"/>
-      <c r="FD120"/>
-      <c r="FE120"/>
-      <c r="FF120"/>
-      <c r="FG120"/>
-      <c r="FH120"/>
-      <c r="FI120"/>
-      <c r="FJ120"/>
-      <c r="FK120"/>
-      <c r="FL120"/>
-      <c r="FM120"/>
-      <c r="FN120"/>
-      <c r="FO120"/>
-      <c r="FP120"/>
-      <c r="FQ120"/>
-      <c r="FR120"/>
-      <c r="FS120"/>
-      <c r="FT120"/>
-      <c r="FU120"/>
-      <c r="FV120"/>
-      <c r="FW120"/>
-      <c r="FX120"/>
-      <c r="FY120"/>
-      <c r="FZ120"/>
-      <c r="GA120"/>
-      <c r="GB120"/>
-      <c r="GC120"/>
-      <c r="GD120"/>
-      <c r="GE120"/>
-      <c r="GF120"/>
-      <c r="GG120"/>
-      <c r="GH120"/>
-      <c r="GI120"/>
-      <c r="GJ120"/>
-      <c r="GK120"/>
-      <c r="GL120"/>
-      <c r="GM120"/>
-      <c r="GN120"/>
-      <c r="GO120"/>
-      <c r="GP120"/>
-      <c r="GQ120"/>
-      <c r="GR120"/>
-      <c r="GS120"/>
-      <c r="GT120"/>
-      <c r="GU120"/>
-      <c r="GV120"/>
-      <c r="GW120"/>
-      <c r="GX120"/>
-      <c r="GY120"/>
-      <c r="GZ120"/>
-      <c r="HA120"/>
-      <c r="HB120"/>
-      <c r="HC120"/>
-      <c r="HD120"/>
-      <c r="HE120"/>
-      <c r="HF120"/>
-      <c r="HG120"/>
-      <c r="HH120"/>
-      <c r="HI120"/>
-      <c r="HJ120"/>
-      <c r="HK120"/>
-      <c r="HL120"/>
-      <c r="HM120"/>
-      <c r="HN120"/>
-      <c r="HO120"/>
-      <c r="HP120"/>
-      <c r="HQ120"/>
-      <c r="HR120"/>
-      <c r="HS120"/>
-      <c r="HT120"/>
-      <c r="HU120"/>
-      <c r="HV120"/>
-      <c r="HW120"/>
-      <c r="HX120"/>
-      <c r="HY120"/>
-      <c r="HZ120"/>
-      <c r="IA120"/>
-      <c r="IB120"/>
-      <c r="IC120"/>
-      <c r="ID120"/>
-      <c r="IE120"/>
-      <c r="IF120"/>
-      <c r="IG120"/>
-      <c r="IH120"/>
-      <c r="II120"/>
-      <c r="IJ120"/>
-      <c r="IK120"/>
-      <c r="IL120"/>
-      <c r="IM120"/>
-      <c r="IN120"/>
-      <c r="IO120"/>
-      <c r="IP120"/>
-      <c r="IQ120"/>
-      <c r="IR120"/>
-      <c r="IS120"/>
-      <c r="IT120"/>
-      <c r="IU120"/>
-      <c r="IV120"/>
-      <c r="IW120"/>
-      <c r="IX120"/>
-      <c r="IY120"/>
-      <c r="IZ120"/>
-      <c r="JA120"/>
-      <c r="JB120"/>
-      <c r="JC120"/>
-      <c r="JD120"/>
-      <c r="JE120"/>
-      <c r="JF120"/>
-      <c r="JG120"/>
-      <c r="JH120"/>
-      <c r="JI120"/>
-      <c r="JJ120"/>
-      <c r="JK120"/>
-      <c r="JL120"/>
-      <c r="JM120"/>
-      <c r="JN120"/>
-      <c r="JO120"/>
-      <c r="JP120"/>
-      <c r="JQ120"/>
-      <c r="JR120"/>
-      <c r="JS120"/>
-      <c r="JT120"/>
-      <c r="JU120"/>
-      <c r="JV120"/>
-      <c r="JW120"/>
-      <c r="JX120"/>
-      <c r="JY120"/>
-      <c r="JZ120"/>
-      <c r="KA120"/>
-      <c r="KB120"/>
-      <c r="KC120"/>
-      <c r="KD120"/>
-      <c r="KE120"/>
-      <c r="KF120"/>
-      <c r="KG120"/>
-      <c r="KH120"/>
-      <c r="KI120"/>
-      <c r="KJ120"/>
-      <c r="KK120"/>
-      <c r="KL120"/>
-      <c r="KM120"/>
-      <c r="KN120"/>
-      <c r="KO120"/>
-      <c r="KP120"/>
-      <c r="KQ120"/>
-      <c r="KR120"/>
-      <c r="KS120"/>
-      <c r="KT120"/>
-      <c r="KU120"/>
-      <c r="KV120"/>
-      <c r="KW120"/>
-      <c r="KX120"/>
-      <c r="KY120"/>
-      <c r="KZ120"/>
-      <c r="LA120"/>
-      <c r="LB120"/>
-      <c r="LC120"/>
-      <c r="LD120"/>
-      <c r="LE120"/>
-      <c r="LF120"/>
-      <c r="LG120"/>
-      <c r="LH120"/>
-      <c r="LI120"/>
-      <c r="LJ120"/>
-      <c r="LK120"/>
-      <c r="LL120"/>
-      <c r="LM120"/>
-      <c r="LN120"/>
-      <c r="LO120"/>
-      <c r="LP120"/>
-      <c r="LQ120"/>
-      <c r="LR120"/>
-      <c r="LS120"/>
-      <c r="LT120"/>
-      <c r="LU120"/>
-      <c r="LV120"/>
-      <c r="LW120"/>
-      <c r="LX120"/>
-      <c r="LY120"/>
-      <c r="LZ120"/>
-      <c r="MA120"/>
-      <c r="MB120"/>
-      <c r="MC120"/>
-      <c r="MD120"/>
-      <c r="ME120"/>
-      <c r="MF120"/>
-      <c r="MG120"/>
-      <c r="MH120"/>
-      <c r="MI120"/>
-      <c r="MJ120"/>
-      <c r="MK120"/>
-      <c r="ML120"/>
-      <c r="MM120"/>
-      <c r="MN120"/>
-      <c r="MO120"/>
-      <c r="MP120"/>
-      <c r="MQ120"/>
-      <c r="MR120"/>
-      <c r="MS120"/>
-      <c r="MT120"/>
-      <c r="MU120"/>
-      <c r="MV120"/>
-      <c r="MW120"/>
-      <c r="MX120"/>
-      <c r="MY120"/>
-      <c r="MZ120"/>
-      <c r="NA120"/>
-      <c r="NB120"/>
-      <c r="NC120"/>
-      <c r="ND120"/>
-      <c r="NE120"/>
-      <c r="NF120"/>
-      <c r="NG120"/>
-      <c r="NH120"/>
-      <c r="NI120"/>
-      <c r="NJ120"/>
-      <c r="NK120"/>
-      <c r="NL120"/>
-      <c r="NM120"/>
-      <c r="NN120"/>
-      <c r="NO120"/>
-      <c r="NP120"/>
-      <c r="NQ120"/>
-      <c r="NR120"/>
-      <c r="NS120"/>
-      <c r="NT120"/>
-      <c r="NU120"/>
-      <c r="NV120"/>
-      <c r="NW120"/>
-      <c r="NX120"/>
-      <c r="NY120"/>
-      <c r="NZ120"/>
-      <c r="OA120"/>
-      <c r="OB120"/>
-      <c r="OC120"/>
-      <c r="OD120"/>
-      <c r="OE120"/>
-      <c r="OF120"/>
-      <c r="OG120"/>
-      <c r="OH120"/>
-      <c r="OI120"/>
-      <c r="OJ120"/>
-      <c r="OK120"/>
-      <c r="OL120"/>
-      <c r="OM120"/>
-      <c r="ON120"/>
-      <c r="OO120"/>
-      <c r="OP120"/>
-      <c r="OQ120"/>
-      <c r="OR120"/>
-      <c r="OS120"/>
-      <c r="OT120"/>
-      <c r="OU120"/>
-      <c r="OV120"/>
-      <c r="OW120"/>
-      <c r="OX120"/>
-      <c r="OY120"/>
-      <c r="OZ120"/>
-      <c r="PA120"/>
-      <c r="PB120"/>
-      <c r="PC120"/>
-      <c r="PD120"/>
-      <c r="PE120"/>
-      <c r="PF120"/>
-      <c r="PG120"/>
-      <c r="PH120"/>
-      <c r="PI120"/>
-      <c r="PJ120"/>
-      <c r="PK120"/>
-      <c r="PL120"/>
-      <c r="PM120"/>
-      <c r="PN120"/>
-      <c r="PO120"/>
-      <c r="PP120"/>
-      <c r="PQ120"/>
-      <c r="PR120"/>
-      <c r="PS120"/>
-      <c r="PT120"/>
-      <c r="PU120"/>
-      <c r="PV120"/>
-      <c r="PW120"/>
-      <c r="PX120"/>
-      <c r="PY120"/>
-      <c r="PZ120"/>
-      <c r="QA120"/>
-      <c r="QB120"/>
-      <c r="QC120"/>
-      <c r="QD120"/>
-      <c r="QE120"/>
-      <c r="QF120"/>
-      <c r="QG120"/>
-      <c r="QH120"/>
-      <c r="QI120"/>
-      <c r="QJ120"/>
-      <c r="QK120"/>
-      <c r="QL120"/>
-      <c r="QM120"/>
-      <c r="QN120"/>
-      <c r="QO120"/>
-      <c r="QP120"/>
-      <c r="QQ120"/>
-      <c r="QR120"/>
-      <c r="QS120"/>
-      <c r="QT120"/>
-      <c r="QU120"/>
-      <c r="QV120"/>
-      <c r="QW120"/>
-      <c r="QX120"/>
-      <c r="QY120"/>
-      <c r="QZ120"/>
-      <c r="RA120"/>
-      <c r="RB120"/>
-      <c r="RC120"/>
-      <c r="RD120"/>
-      <c r="RE120"/>
-      <c r="RF120"/>
-      <c r="RG120"/>
-      <c r="RH120"/>
-      <c r="RI120"/>
-      <c r="RJ120"/>
-      <c r="RK120"/>
-      <c r="RL120"/>
-      <c r="RM120"/>
-      <c r="RN120"/>
-      <c r="RO120"/>
-      <c r="RP120"/>
-      <c r="RQ120"/>
-      <c r="RR120"/>
-      <c r="RS120"/>
-      <c r="RT120"/>
-      <c r="RU120"/>
-      <c r="RV120"/>
-      <c r="RW120"/>
-      <c r="RX120"/>
-      <c r="RY120"/>
-      <c r="RZ120"/>
-      <c r="SA120"/>
-      <c r="SB120"/>
-      <c r="SC120"/>
-      <c r="SD120"/>
-      <c r="SE120"/>
-      <c r="SF120"/>
-      <c r="SG120"/>
-      <c r="SH120"/>
-      <c r="SI120"/>
-      <c r="SJ120"/>
-      <c r="SK120"/>
-      <c r="SL120"/>
-      <c r="SM120"/>
-      <c r="SN120"/>
-      <c r="SO120"/>
-      <c r="SP120"/>
-      <c r="SQ120"/>
-      <c r="SR120"/>
-      <c r="SS120"/>
-      <c r="ST120"/>
-      <c r="SU120"/>
-      <c r="SV120"/>
-      <c r="SW120"/>
-      <c r="SX120"/>
-      <c r="SY120"/>
-      <c r="SZ120"/>
-      <c r="TA120"/>
-      <c r="TB120"/>
-      <c r="TC120"/>
-      <c r="TD120"/>
-      <c r="TE120"/>
-      <c r="TF120"/>
-      <c r="TG120"/>
-      <c r="TH120"/>
-      <c r="TI120"/>
-      <c r="TJ120"/>
-      <c r="TK120"/>
-      <c r="TL120"/>
-      <c r="TM120"/>
-      <c r="TN120"/>
-      <c r="TO120"/>
-      <c r="TP120"/>
-      <c r="TQ120"/>
-      <c r="TR120"/>
-      <c r="TS120"/>
-      <c r="TT120"/>
-      <c r="TU120"/>
-      <c r="TV120"/>
-      <c r="TW120"/>
-      <c r="TX120"/>
-      <c r="TY120"/>
-      <c r="TZ120"/>
-      <c r="UA120"/>
-      <c r="UB120"/>
-      <c r="UC120"/>
-      <c r="UD120"/>
-      <c r="UE120"/>
-      <c r="UF120"/>
-      <c r="UG120"/>
-      <c r="UH120"/>
-      <c r="UI120"/>
-      <c r="UJ120"/>
-      <c r="UK120"/>
-      <c r="UL120"/>
-      <c r="UM120"/>
-      <c r="UN120"/>
-      <c r="UO120"/>
-      <c r="UP120"/>
-      <c r="UQ120"/>
-      <c r="UR120"/>
-      <c r="US120"/>
-      <c r="UT120"/>
-      <c r="UU120"/>
-      <c r="UV120"/>
-      <c r="UW120"/>
-      <c r="UX120"/>
-      <c r="UY120"/>
-      <c r="UZ120"/>
-      <c r="VA120"/>
-      <c r="VB120"/>
-      <c r="VC120"/>
-      <c r="VD120"/>
-      <c r="VE120"/>
-      <c r="VF120"/>
-      <c r="VG120"/>
-      <c r="VH120"/>
-      <c r="VI120"/>
-      <c r="VJ120"/>
-      <c r="VK120"/>
-      <c r="VL120"/>
-      <c r="VM120"/>
-      <c r="VN120"/>
-      <c r="VO120"/>
-      <c r="VP120"/>
-      <c r="VQ120"/>
-      <c r="VR120"/>
-      <c r="VS120"/>
-      <c r="VT120"/>
-      <c r="VU120"/>
-      <c r="VV120"/>
-      <c r="VW120"/>
-      <c r="VX120"/>
-      <c r="VY120"/>
-      <c r="VZ120"/>
-      <c r="WA120"/>
-      <c r="WB120"/>
-      <c r="WC120"/>
-      <c r="WD120"/>
-      <c r="WE120"/>
-      <c r="WF120"/>
-      <c r="WG120"/>
-      <c r="WH120"/>
-      <c r="WI120"/>
-      <c r="WJ120"/>
-      <c r="WK120"/>
-      <c r="WL120"/>
-      <c r="WM120"/>
-      <c r="WN120"/>
-      <c r="WO120"/>
-      <c r="WP120"/>
-      <c r="WQ120"/>
-      <c r="WR120"/>
-      <c r="WS120"/>
-      <c r="WT120"/>
-      <c r="WU120"/>
-      <c r="WV120"/>
-      <c r="WW120"/>
-      <c r="WX120"/>
-      <c r="WY120"/>
-      <c r="WZ120"/>
-      <c r="XA120"/>
-      <c r="XB120"/>
-      <c r="XC120"/>
-      <c r="XD120"/>
-      <c r="XE120"/>
-      <c r="XF120"/>
-      <c r="XG120"/>
-      <c r="XH120"/>
-      <c r="XI120"/>
-      <c r="XJ120"/>
-      <c r="XK120"/>
-      <c r="XL120"/>
-      <c r="XM120"/>
-      <c r="XN120"/>
-      <c r="XO120"/>
-      <c r="XP120"/>
-      <c r="XQ120"/>
-      <c r="XR120"/>
-      <c r="XS120"/>
-      <c r="XT120"/>
-      <c r="XU120"/>
-      <c r="XV120"/>
-      <c r="XW120"/>
-      <c r="XX120"/>
-      <c r="XY120"/>
-      <c r="XZ120"/>
-      <c r="YA120"/>
-      <c r="YB120"/>
-      <c r="YC120"/>
-      <c r="YD120"/>
-      <c r="YE120"/>
-      <c r="YF120"/>
-      <c r="YG120"/>
-      <c r="YH120"/>
-      <c r="YI120"/>
-      <c r="YJ120"/>
-      <c r="YK120"/>
-      <c r="YL120"/>
-      <c r="YM120"/>
-      <c r="YN120"/>
-      <c r="YO120"/>
-      <c r="YP120"/>
-      <c r="YQ120"/>
-      <c r="YR120"/>
-      <c r="YS120"/>
-      <c r="YT120"/>
-      <c r="YU120"/>
-      <c r="YV120"/>
-      <c r="YW120"/>
-      <c r="YX120"/>
-      <c r="YY120"/>
-      <c r="YZ120"/>
-      <c r="ZA120"/>
-      <c r="ZB120"/>
-      <c r="ZC120"/>
-      <c r="ZD120"/>
-      <c r="ZE120"/>
-      <c r="ZF120"/>
-      <c r="ZG120"/>
-      <c r="ZH120"/>
-      <c r="ZI120"/>
-      <c r="ZJ120"/>
-      <c r="ZK120"/>
-      <c r="ZL120"/>
-      <c r="ZM120"/>
-      <c r="ZN120"/>
-      <c r="ZO120"/>
-      <c r="ZP120"/>
-      <c r="ZQ120"/>
-      <c r="ZR120"/>
-      <c r="ZS120"/>
-      <c r="ZT120"/>
-      <c r="ZU120"/>
-      <c r="ZV120"/>
-      <c r="ZW120"/>
-      <c r="ZX120"/>
-      <c r="ZY120"/>
-      <c r="ZZ120"/>
-      <c r="AAA120"/>
-      <c r="AAB120"/>
-      <c r="AAC120"/>
-      <c r="AAD120"/>
-      <c r="AAE120"/>
-      <c r="AAF120"/>
-      <c r="AAG120"/>
-      <c r="AAH120"/>
-      <c r="AAI120"/>
-      <c r="AAJ120"/>
-      <c r="AAK120"/>
-      <c r="AAL120"/>
-      <c r="AAM120"/>
-      <c r="AAN120"/>
-      <c r="AAO120"/>
-      <c r="AAP120"/>
-      <c r="AAQ120"/>
-      <c r="AAR120"/>
-      <c r="AAS120"/>
-      <c r="AAT120"/>
-      <c r="AAU120"/>
-      <c r="AAV120"/>
-      <c r="AAW120"/>
-      <c r="AAX120"/>
-      <c r="AAY120"/>
-      <c r="AAZ120"/>
-      <c r="ABA120"/>
-      <c r="ABB120"/>
-      <c r="ABC120"/>
-      <c r="ABD120"/>
-      <c r="ABE120"/>
-      <c r="ABF120"/>
-      <c r="ABG120"/>
-      <c r="ABH120"/>
-      <c r="ABI120"/>
-      <c r="ABJ120"/>
-      <c r="ABK120"/>
-      <c r="ABL120"/>
-      <c r="ABM120"/>
-      <c r="ABN120"/>
-      <c r="ABO120"/>
-      <c r="ABP120"/>
-      <c r="ABQ120"/>
-      <c r="ABR120"/>
-      <c r="ABS120"/>
-      <c r="ABT120"/>
-      <c r="ABU120"/>
-      <c r="ABV120"/>
-      <c r="ABW120"/>
-      <c r="ABX120"/>
-      <c r="ABY120"/>
-      <c r="ABZ120"/>
-      <c r="ACA120"/>
-      <c r="ACB120"/>
-      <c r="ACC120"/>
-      <c r="ACD120"/>
-      <c r="ACE120"/>
-      <c r="ACF120"/>
-      <c r="ACG120"/>
-      <c r="ACH120"/>
-      <c r="ACI120"/>
-      <c r="ACJ120"/>
-      <c r="ACK120"/>
-      <c r="ACL120"/>
-      <c r="ACM120"/>
-      <c r="ACN120"/>
-      <c r="ACO120"/>
-      <c r="ACP120"/>
-      <c r="ACQ120"/>
-      <c r="ACR120"/>
-      <c r="ACS120"/>
-      <c r="ACT120"/>
-      <c r="ACU120"/>
-      <c r="ACV120"/>
-      <c r="ACW120"/>
-      <c r="ACX120"/>
-      <c r="ACY120"/>
-      <c r="ACZ120"/>
-      <c r="ADA120"/>
-      <c r="ADB120"/>
-      <c r="ADC120"/>
-      <c r="ADD120"/>
-      <c r="ADE120"/>
-      <c r="ADF120"/>
-      <c r="ADG120"/>
-      <c r="ADH120"/>
-      <c r="ADI120"/>
-      <c r="ADJ120"/>
-      <c r="ADK120"/>
-      <c r="ADL120"/>
-      <c r="ADM120"/>
-      <c r="ADN120"/>
-      <c r="ADO120"/>
-      <c r="ADP120"/>
-      <c r="ADQ120"/>
-      <c r="ADR120"/>
-      <c r="ADS120"/>
-      <c r="ADT120"/>
-      <c r="ADU120"/>
-      <c r="ADV120"/>
-      <c r="ADW120"/>
-      <c r="ADX120"/>
-      <c r="ADY120"/>
-      <c r="ADZ120"/>
-      <c r="AEA120"/>
-      <c r="AEB120"/>
-      <c r="AEC120"/>
-      <c r="AED120"/>
-      <c r="AEE120"/>
-      <c r="AEF120"/>
-      <c r="AEG120"/>
-      <c r="AEH120"/>
-      <c r="AEI120"/>
-      <c r="AEJ120"/>
-      <c r="AEK120"/>
-      <c r="AEL120"/>
-      <c r="AEM120"/>
-      <c r="AEN120"/>
-      <c r="AEO120"/>
-      <c r="AEP120"/>
-      <c r="AEQ120"/>
-      <c r="AER120"/>
-      <c r="AES120"/>
-      <c r="AET120"/>
-      <c r="AEU120"/>
-      <c r="AEV120"/>
-      <c r="AEW120"/>
-      <c r="AEX120"/>
-      <c r="AEY120"/>
-      <c r="AEZ120"/>
-      <c r="AFA120"/>
-      <c r="AFB120"/>
-      <c r="AFC120"/>
-      <c r="AFD120"/>
-      <c r="AFE120"/>
-      <c r="AFF120"/>
-      <c r="AFG120"/>
-      <c r="AFH120"/>
-      <c r="AFI120"/>
-      <c r="AFJ120"/>
-      <c r="AFK120"/>
-      <c r="AFL120"/>
-      <c r="AFM120"/>
-      <c r="AFN120"/>
-      <c r="AFO120"/>
-      <c r="AFP120"/>
-      <c r="AFQ120"/>
-      <c r="AFR120"/>
-      <c r="AFS120"/>
-      <c r="AFT120"/>
-      <c r="AFU120"/>
-      <c r="AFV120"/>
-      <c r="AFW120"/>
-      <c r="AFX120"/>
-      <c r="AFY120"/>
-      <c r="AFZ120"/>
-      <c r="AGA120"/>
-      <c r="AGB120"/>
-      <c r="AGC120"/>
-      <c r="AGD120"/>
-      <c r="AGE120"/>
-      <c r="AGF120"/>
-      <c r="AGG120"/>
-      <c r="AGH120"/>
-      <c r="AGI120"/>
-      <c r="AGJ120"/>
-      <c r="AGK120"/>
-      <c r="AGL120"/>
-      <c r="AGM120"/>
-      <c r="AGN120"/>
-      <c r="AGO120"/>
-      <c r="AGP120"/>
-      <c r="AGQ120"/>
-      <c r="AGR120"/>
-      <c r="AGS120"/>
-      <c r="AGT120"/>
-      <c r="AGU120"/>
-      <c r="AGV120"/>
-      <c r="AGW120"/>
-      <c r="AGX120"/>
-      <c r="AGY120"/>
-      <c r="AGZ120"/>
-      <c r="AHA120"/>
-      <c r="AHB120"/>
-      <c r="AHC120"/>
-      <c r="AHD120"/>
-      <c r="AHE120"/>
-      <c r="AHF120"/>
-      <c r="AHG120"/>
-      <c r="AHH120"/>
-      <c r="AHI120"/>
-      <c r="AHJ120"/>
-      <c r="AHK120"/>
-      <c r="AHL120"/>
-      <c r="AHM120"/>
-      <c r="AHN120"/>
-      <c r="AHO120"/>
-      <c r="AHP120"/>
-      <c r="AHQ120"/>
-      <c r="AHR120"/>
-      <c r="AHS120"/>
-      <c r="AHT120"/>
-      <c r="AHU120"/>
-      <c r="AHV120"/>
-      <c r="AHW120"/>
-      <c r="AHX120"/>
-      <c r="AHY120"/>
-      <c r="AHZ120"/>
-      <c r="AIA120"/>
-      <c r="AIB120"/>
-      <c r="AIC120"/>
-      <c r="AID120"/>
-      <c r="AIE120"/>
-      <c r="AIF120"/>
-      <c r="AIG120"/>
-      <c r="AIH120"/>
-      <c r="AII120"/>
-      <c r="AIJ120"/>
-      <c r="AIK120"/>
-      <c r="AIL120"/>
-      <c r="AIM120"/>
-      <c r="AIN120"/>
-      <c r="AIO120"/>
-      <c r="AIP120"/>
-      <c r="AIQ120"/>
-      <c r="AIR120"/>
-      <c r="AIS120"/>
-      <c r="AIT120"/>
-      <c r="AIU120"/>
-      <c r="AIV120"/>
-      <c r="AIW120"/>
-      <c r="AIX120"/>
-      <c r="AIY120"/>
-      <c r="AIZ120"/>
-      <c r="AJA120"/>
-      <c r="AJB120"/>
-      <c r="AJC120"/>
-      <c r="AJD120"/>
-      <c r="AJE120"/>
-      <c r="AJF120"/>
-      <c r="AJG120"/>
-      <c r="AJH120"/>
-      <c r="AJI120"/>
-      <c r="AJJ120"/>
-      <c r="AJK120"/>
-      <c r="AJL120"/>
-      <c r="AJM120"/>
-      <c r="AJN120"/>
-      <c r="AJO120"/>
-      <c r="AJP120"/>
-      <c r="AJQ120"/>
-      <c r="AJR120"/>
-      <c r="AJS120"/>
-      <c r="AJT120"/>
-      <c r="AJU120"/>
-      <c r="AJV120"/>
-      <c r="AJW120"/>
-      <c r="AJX120"/>
-      <c r="AJY120"/>
-      <c r="AJZ120"/>
-      <c r="AKA120"/>
-      <c r="AKB120"/>
-      <c r="AKC120"/>
-      <c r="AKD120"/>
-      <c r="AKE120"/>
-      <c r="AKF120"/>
-      <c r="AKG120"/>
-      <c r="AKH120"/>
-      <c r="AKI120"/>
-      <c r="AKJ120"/>
-      <c r="AKK120"/>
-      <c r="AKL120"/>
-      <c r="AKM120"/>
-      <c r="AKN120"/>
-      <c r="AKO120"/>
-      <c r="AKP120"/>
-      <c r="AKQ120"/>
-      <c r="AKR120"/>
-      <c r="AKS120"/>
-      <c r="AKT120"/>
-      <c r="AKU120"/>
-      <c r="AKV120"/>
-      <c r="AKW120"/>
-      <c r="AKX120"/>
-      <c r="AKY120"/>
-      <c r="AKZ120"/>
-      <c r="ALA120"/>
-      <c r="ALB120"/>
-      <c r="ALC120"/>
-      <c r="ALD120"/>
-      <c r="ALE120"/>
-      <c r="ALF120"/>
-      <c r="ALG120"/>
-      <c r="ALH120"/>
-      <c r="ALI120"/>
-      <c r="ALJ120"/>
-      <c r="ALK120"/>
-      <c r="ALL120"/>
-      <c r="ALM120"/>
-      <c r="ALN120"/>
-      <c r="ALO120"/>
-      <c r="ALP120"/>
-      <c r="ALQ120"/>
-      <c r="ALR120"/>
-      <c r="ALS120"/>
-      <c r="ALT120"/>
-      <c r="ALU120"/>
-      <c r="ALV120"/>
-      <c r="ALW120"/>
-      <c r="ALX120"/>
-      <c r="ALY120"/>
-      <c r="ALZ120"/>
-      <c r="AMA120"/>
-      <c r="AMB120"/>
-      <c r="AMC120"/>
-      <c r="AMD120"/>
-      <c r="AME120"/>
-      <c r="AMF120"/>
-      <c r="AMG120"/>
-      <c r="AMH120"/>
-      <c r="AMI120"/>
-      <c r="AMJ120"/>
-    </row>
-    <row r="121" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" s="21" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="21" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" s="21" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
